--- a/output/semivariogram-models.xlsx
+++ b/output/semivariogram-models.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -470,6 +470,72 @@
         <v>0.8323</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>PA</t>
+        </is>
+      </c>
+      <c r="B4">
+        <v>2015</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Sph</t>
+        </is>
+      </c>
+      <c r="D4">
+        <v>0.6611</v>
+      </c>
+      <c r="E4">
+        <v>1.2411</v>
+      </c>
+      <c r="F4">
+        <v>0.21</v>
+      </c>
+      <c r="G4">
+        <v>0.5326726291193296</v>
+      </c>
+      <c r="H4">
+        <v>93880.3311</v>
+      </c>
+      <c r="I4">
+        <v>0.9224</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>PA</t>
+        </is>
+      </c>
+      <c r="B5">
+        <v>2016</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Sph</t>
+        </is>
+      </c>
+      <c r="D5">
+        <v>0.7436</v>
+      </c>
+      <c r="E5">
+        <v>1.4251</v>
+      </c>
+      <c r="F5">
+        <v>0.23</v>
+      </c>
+      <c r="G5">
+        <v>0.5217879447056347</v>
+      </c>
+      <c r="H5">
+        <v>209752.6425</v>
+      </c>
+      <c r="I5">
+        <v>0.856</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/output/semivariogram-models.xlsx
+++ b/output/semivariogram-models.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -407,7 +407,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>MS</t>
+          <t>GO</t>
         </is>
       </c>
       <c r="B2">
@@ -415,65 +415,65 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Exp</t>
+          <t>Sph</t>
         </is>
       </c>
       <c r="D2">
-        <v>1.0227</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>1.5149</v>
+        <v>2.1275</v>
       </c>
       <c r="F2">
-        <v>0.22</v>
+        <v>0.6</v>
       </c>
       <c r="G2">
-        <v>0.675094065614892</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>6861.6934</v>
+        <v>2878.8526</v>
       </c>
       <c r="I2">
-        <v>0.8737</v>
+        <v>0.6132</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>MS</t>
+          <t>MG</t>
         </is>
       </c>
       <c r="B3">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Sph</t>
+          <t>Exp</t>
         </is>
       </c>
       <c r="D3">
-        <v>1.3939</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>1.7556</v>
+        <v>1.5897</v>
       </c>
       <c r="F3">
-        <v>0.17</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="G3">
-        <v>0.7939735702893597</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>91307.11169999999</v>
+        <v>2876.9595</v>
       </c>
       <c r="I3">
-        <v>0.8323</v>
+        <v>0.6907</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>PA</t>
+          <t>MS</t>
         </is>
       </c>
       <c r="B4">
@@ -485,28 +485,28 @@
         </is>
       </c>
       <c r="D4">
-        <v>0.6611</v>
+        <v>0.3214</v>
       </c>
       <c r="E4">
-        <v>1.2411</v>
+        <v>1.2175</v>
       </c>
       <c r="F4">
-        <v>0.21</v>
+        <v>0.82</v>
       </c>
       <c r="G4">
-        <v>0.5326726291193296</v>
+        <v>0.2639835728952772</v>
       </c>
       <c r="H4">
-        <v>93880.3311</v>
+        <v>621.2714999999999</v>
       </c>
       <c r="I4">
-        <v>0.9224</v>
+        <v>0.6555</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>PA</t>
+          <t>MS</t>
         </is>
       </c>
       <c r="B5">
@@ -518,21 +518,120 @@
         </is>
       </c>
       <c r="D5">
+        <v>0.0793</v>
+      </c>
+      <c r="E5">
+        <v>0.9015</v>
+      </c>
+      <c r="F5">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="G5">
+        <v>0.08796450360510261</v>
+      </c>
+      <c r="H5">
+        <v>212.1107</v>
+      </c>
+      <c r="I5">
+        <v>0.8929</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+      <c r="B6">
+        <v>2015</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Exp</t>
+        </is>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0.9879</v>
+      </c>
+      <c r="F6">
+        <v>0.73</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>2601.9701</v>
+      </c>
+      <c r="I6">
+        <v>0.2146</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>PA</t>
+        </is>
+      </c>
+      <c r="B7">
+        <v>2015</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Sph</t>
+        </is>
+      </c>
+      <c r="D7">
+        <v>0.1198</v>
+      </c>
+      <c r="E7">
+        <v>1.0045</v>
+      </c>
+      <c r="F7">
+        <v>0.43</v>
+      </c>
+      <c r="G7">
+        <v>0.1192633150821304</v>
+      </c>
+      <c r="H7">
+        <v>420.9166</v>
+      </c>
+      <c r="I7">
+        <v>0.3708</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>PA</t>
+        </is>
+      </c>
+      <c r="B8">
+        <v>2016</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Sph</t>
+        </is>
+      </c>
+      <c r="D8">
         <v>0.7436</v>
       </c>
-      <c r="E5">
+      <c r="E8">
         <v>1.4251</v>
       </c>
-      <c r="F5">
+      <c r="F8">
         <v>0.23</v>
       </c>
-      <c r="G5">
+      <c r="G8">
         <v>0.5217879447056347</v>
       </c>
-      <c r="H5">
+      <c r="H8">
         <v>209752.6425</v>
       </c>
-      <c r="I5">
+      <c r="I8">
         <v>0.856</v>
       </c>
     </row>
